--- a/data/pca/factorExposure/factorExposure_2018-09-18.xlsx
+++ b/data/pca/factorExposure/factorExposure_2018-09-18.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,9 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,79 +726,91 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.03810968452089609</v>
+        <v>0.03147920031233762</v>
       </c>
       <c r="C2">
-        <v>0.04754397296568749</v>
+        <v>-0.01023562089569932</v>
       </c>
       <c r="D2">
-        <v>0.03676560489606013</v>
+        <v>-0.01207936621030969</v>
       </c>
       <c r="E2">
-        <v>0.04997317896837136</v>
+        <v>0.01381129787684526</v>
       </c>
       <c r="F2">
-        <v>0.139769591666521</v>
+        <v>0.02434983828777872</v>
       </c>
       <c r="G2">
-        <v>0.09496975414195562</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>0.07657949975763358</v>
+      </c>
+      <c r="H2">
+        <v>-0.01931566579591457</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>0.128412528765967</v>
+        <v>0.08275141626901907</v>
       </c>
       <c r="C3">
-        <v>0.02215183113403364</v>
+        <v>0.02864591705561367</v>
       </c>
       <c r="D3">
-        <v>0.04195011834843376</v>
+        <v>-0.0232045437912728</v>
       </c>
       <c r="E3">
-        <v>0.09532825916902239</v>
+        <v>0.008616936707674373</v>
       </c>
       <c r="F3">
-        <v>0.389485423468419</v>
+        <v>0.0008188480500195985</v>
       </c>
       <c r="G3">
-        <v>0.2447272070351249</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>0.2593542169443852</v>
+      </c>
+      <c r="H3">
+        <v>-0.04722235266313682</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.04688060667161048</v>
+        <v>0.04575995081986237</v>
       </c>
       <c r="C4">
-        <v>0.0383776351785164</v>
+        <v>0.002473069650922799</v>
       </c>
       <c r="D4">
-        <v>-0.001431220659358798</v>
+        <v>-0.02653939042125163</v>
       </c>
       <c r="E4">
-        <v>0.06360643086531489</v>
+        <v>-0.02234931347183506</v>
       </c>
       <c r="F4">
-        <v>0.06635631693643883</v>
+        <v>0.06111077743727625</v>
       </c>
       <c r="G4">
-        <v>0.0684023447386429</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>0.04285297754322681</v>
+      </c>
+      <c r="H4">
+        <v>-0.02974977795824303</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,217 +830,247 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.0115411717496326</v>
+        <v>0.03033067576028888</v>
       </c>
       <c r="C6">
-        <v>0.001496657498055509</v>
+        <v>0.001489663200243843</v>
       </c>
       <c r="D6">
-        <v>0.01124652921293968</v>
+        <v>-0.03338199097649235</v>
       </c>
       <c r="E6">
-        <v>0.009106269692759459</v>
+        <v>-0.006588804799809777</v>
       </c>
       <c r="F6">
-        <v>0.01238415082985505</v>
+        <v>0.03805621342071818</v>
       </c>
       <c r="G6">
-        <v>-0.01770857180153937</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>0.01027405384871566</v>
+      </c>
+      <c r="H6">
+        <v>-0.05232334756676026</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.02459667888485434</v>
+        <v>0.02026464306435721</v>
       </c>
       <c r="C7">
-        <v>0.01929679312834654</v>
+        <v>0.0003802553998692227</v>
       </c>
       <c r="D7">
-        <v>0.02865700136756926</v>
+        <v>-0.01420956374854273</v>
       </c>
       <c r="E7">
-        <v>0.03248945080384593</v>
+        <v>-0.03665711312188755</v>
       </c>
       <c r="F7">
-        <v>0.07154254301978455</v>
+        <v>0.02365707751809096</v>
       </c>
       <c r="G7">
-        <v>0.05776762488472852</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>0.03119696389294566</v>
+      </c>
+      <c r="H7">
+        <v>-0.01688451474654887</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.01009939520780119</v>
+        <v>0.001160167977828919</v>
       </c>
       <c r="C8">
-        <v>0.01155370299023483</v>
+        <v>0.0006577050434296421</v>
       </c>
       <c r="D8">
-        <v>-0.003762261370587668</v>
+        <v>-0.009048055533977568</v>
       </c>
       <c r="E8">
-        <v>0.06946953599595104</v>
+        <v>-0.01303479387267674</v>
       </c>
       <c r="F8">
-        <v>0.09161028907380377</v>
+        <v>0.02547665657260946</v>
       </c>
       <c r="G8">
-        <v>0.06600118090313455</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>0.05108101464344755</v>
+      </c>
+      <c r="H8">
+        <v>-0.01069389509434287</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.03816324938197113</v>
+        <v>0.03626366672029048</v>
       </c>
       <c r="C9">
-        <v>0.03396407133471207</v>
+        <v>0.005368150968398851</v>
       </c>
       <c r="D9">
-        <v>-0.01586198722330759</v>
+        <v>-0.02179201477217827</v>
       </c>
       <c r="E9">
-        <v>0.06449452549943939</v>
+        <v>-0.02037413580316571</v>
       </c>
       <c r="F9">
-        <v>0.06875228621646064</v>
+        <v>0.03954411567000195</v>
       </c>
       <c r="G9">
-        <v>0.05023683910106012</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>0.05385324635537363</v>
+      </c>
+      <c r="H9">
+        <v>-0.02912653946214505</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.05968399803906046</v>
+        <v>0.08702536692583165</v>
       </c>
       <c r="C10">
-        <v>0.051265065807077</v>
+        <v>0.04556661567389367</v>
       </c>
       <c r="D10">
-        <v>-0.02459190998959637</v>
+        <v>0.1449443892245572</v>
       </c>
       <c r="E10">
-        <v>-0.1167898407728228</v>
+        <v>0.02165396055993726</v>
       </c>
       <c r="F10">
-        <v>0.05023808371309581</v>
+        <v>-0.07998078814990787</v>
       </c>
       <c r="G10">
-        <v>-0.005713220626654693</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>0.02774809230004331</v>
+      </c>
+      <c r="H10">
+        <v>-0.004813507661636958</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.03127524436924386</v>
+        <v>0.02110981032558633</v>
       </c>
       <c r="C11">
-        <v>0.0120018980379079</v>
+        <v>0.01146470527371332</v>
       </c>
       <c r="D11">
-        <v>0.01571851157139587</v>
+        <v>-0.03111834794925921</v>
       </c>
       <c r="E11">
-        <v>0.03226245738777524</v>
+        <v>0.002737088384194287</v>
       </c>
       <c r="F11">
-        <v>0.03954900888430608</v>
+        <v>0.02438681590742999</v>
       </c>
       <c r="G11">
-        <v>0.02133830199107339</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>0.03266629322819176</v>
+      </c>
+      <c r="H11">
+        <v>-0.02947017138475587</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.03831012456737116</v>
+        <v>0.0298007342236018</v>
       </c>
       <c r="C12">
-        <v>0.01343251114194464</v>
+        <v>0.01113421094481498</v>
       </c>
       <c r="D12">
-        <v>0.002758680126177871</v>
+        <v>-0.02992302028532046</v>
       </c>
       <c r="E12">
-        <v>0.04560846614414418</v>
+        <v>-0.008306691608550677</v>
       </c>
       <c r="F12">
-        <v>0.02055907714687501</v>
+        <v>0.02785794876352022</v>
       </c>
       <c r="G12">
-        <v>0.0187600029589873</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>0.008720440037171673</v>
+      </c>
+      <c r="H12">
+        <v>-0.01570272621552403</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.01825549047135832</v>
+        <v>0.02613863766378961</v>
       </c>
       <c r="C13">
-        <v>0.02389638697561634</v>
+        <v>-0.009584433753649344</v>
       </c>
       <c r="D13">
-        <v>0.03506766548719658</v>
+        <v>-0.003395616566395547</v>
       </c>
       <c r="E13">
-        <v>0.01990044713307634</v>
+        <v>0.01590507496075478</v>
       </c>
       <c r="F13">
-        <v>0.08560848447484221</v>
+        <v>0.02320566152669815</v>
       </c>
       <c r="G13">
-        <v>0.05088827618526726</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>0.06003234038679453</v>
+      </c>
+      <c r="H13">
+        <v>-0.02796385331032961</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.01106286580766674</v>
+        <v>0.01559223837382956</v>
       </c>
       <c r="C14">
-        <v>0.02305298514491733</v>
+        <v>0.002424757293005995</v>
       </c>
       <c r="D14">
-        <v>0.003362519470388705</v>
+        <v>0.0003314275369334226</v>
       </c>
       <c r="E14">
-        <v>0.03453336762598309</v>
+        <v>-0.00816134448272194</v>
       </c>
       <c r="F14">
-        <v>0.071055775183718</v>
+        <v>0.02546389430492385</v>
       </c>
       <c r="G14">
-        <v>0.05816994577769208</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>0.04198000696408925</v>
+      </c>
+      <c r="H14">
+        <v>0.01700415988268507</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1045,33 +1090,39 @@
       <c r="G15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.02463308557881891</v>
+        <v>0.02225033061497332</v>
       </c>
       <c r="C16">
-        <v>0.01226345739050587</v>
+        <v>0.01208876034310058</v>
       </c>
       <c r="D16">
-        <v>0.0130856236081079</v>
+        <v>-0.02673726909715091</v>
       </c>
       <c r="E16">
-        <v>0.03159480557271779</v>
+        <v>-0.002095661087156021</v>
       </c>
       <c r="F16">
-        <v>0.04082101371260912</v>
+        <v>0.02496361044362828</v>
       </c>
       <c r="G16">
-        <v>0.02556945926273619</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>0.02751069040397188</v>
+      </c>
+      <c r="H16">
+        <v>-0.02336674097429474</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1142,13 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,79 +1168,91 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>0.03686800714607248</v>
+        <v>0.03422303104859128</v>
       </c>
       <c r="C19">
-        <v>0.01619175669110911</v>
+        <v>0.006244019328394777</v>
       </c>
       <c r="D19">
-        <v>0.02314225428634343</v>
+        <v>-0.009612956604275148</v>
       </c>
       <c r="E19">
-        <v>0.04404802229513035</v>
+        <v>0.001675488664426054</v>
       </c>
       <c r="F19">
-        <v>0.09872770010711127</v>
+        <v>0.03386864739491044</v>
       </c>
       <c r="G19">
-        <v>0.0612169558198248</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>0.06355075605252719</v>
+      </c>
+      <c r="H19">
+        <v>-0.04124932936581958</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>-0.006592148271454632</v>
+        <v>0.007055668808372412</v>
       </c>
       <c r="C20">
-        <v>0.02285814272885554</v>
+        <v>-0.006498372647391555</v>
       </c>
       <c r="D20">
-        <v>0.007522080073279205</v>
+        <v>-0.0001958652039793214</v>
       </c>
       <c r="E20">
-        <v>0.02755056707166056</v>
+        <v>-0.001732720177810646</v>
       </c>
       <c r="F20">
-        <v>0.06916740080983881</v>
+        <v>0.01780562283513578</v>
       </c>
       <c r="G20">
-        <v>0.06157449656202829</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>0.04959556099681107</v>
+      </c>
+      <c r="H20">
+        <v>0.007200119885123197</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>-0.002410920173167718</v>
+        <v>0.02256431570937076</v>
       </c>
       <c r="C21">
-        <v>-0.001405748317592135</v>
+        <v>-0.002406946002547419</v>
       </c>
       <c r="D21">
-        <v>0.004748113081110126</v>
+        <v>-0.0003562354210243965</v>
       </c>
       <c r="E21">
-        <v>0.02909282162360533</v>
+        <v>-0.0126944286073499</v>
       </c>
       <c r="F21">
-        <v>0.08153177632986047</v>
+        <v>0.009155396879941845</v>
       </c>
       <c r="G21">
-        <v>0.0187699350043312</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>0.04998852409771771</v>
+      </c>
+      <c r="H21">
+        <v>-0.009930410022808969</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1206,10 +1272,13 @@
       <c r="G22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1229,263 +1298,299 @@
       <c r="G23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.02698222948248369</v>
+        <v>0.02150087806344118</v>
       </c>
       <c r="C24">
-        <v>0.01313602363045079</v>
+        <v>0.006640390341102937</v>
       </c>
       <c r="D24">
-        <v>0.00993105716917232</v>
+        <v>-0.02718790420557935</v>
       </c>
       <c r="E24">
-        <v>0.02449437410643941</v>
+        <v>-0.00207710126224658</v>
       </c>
       <c r="F24">
-        <v>0.03915580788316198</v>
+        <v>0.02143665942115724</v>
       </c>
       <c r="G24">
-        <v>0.01311103169535985</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>0.02618294297518525</v>
+      </c>
+      <c r="H24">
+        <v>-0.02888258363902266</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.02989170111814371</v>
+        <v>0.03239865085685371</v>
       </c>
       <c r="C25">
-        <v>0.01109402581951738</v>
+        <v>0.006917440128440734</v>
       </c>
       <c r="D25">
-        <v>0.008172553307247204</v>
+        <v>-0.02206984371573834</v>
       </c>
       <c r="E25">
-        <v>0.03195647445293823</v>
+        <v>-0.002469824658373535</v>
       </c>
       <c r="F25">
-        <v>0.03770416827836255</v>
+        <v>0.02606472905474786</v>
       </c>
       <c r="G25">
-        <v>0.006805145018978466</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>0.03066606736160577</v>
+      </c>
+      <c r="H25">
+        <v>-0.03115417737829188</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.01830695037066245</v>
+        <v>0.02007765526741661</v>
       </c>
       <c r="C26">
-        <v>0.001957557898407332</v>
+        <v>-0.01492239204090328</v>
       </c>
       <c r="D26">
-        <v>0.03495639824635205</v>
+        <v>-0.003227019437631002</v>
       </c>
       <c r="E26">
-        <v>0.0345356582802349</v>
+        <v>0.005972226384284621</v>
       </c>
       <c r="F26">
-        <v>0.05635308941858071</v>
+        <v>0.006444271975478661</v>
       </c>
       <c r="G26">
-        <v>0.03523083386884843</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>0.03552905929397019</v>
+      </c>
+      <c r="H26">
+        <v>0.0005803074304440395</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B27">
-        <v>0.07279300017421275</v>
+        <v>0.03196180397339171</v>
       </c>
       <c r="C27">
-        <v>0.05316244013418584</v>
+        <v>0.01820472726890885</v>
       </c>
       <c r="D27">
-        <v>-0.0010082458599314</v>
+        <v>-0.006096381442455387</v>
       </c>
       <c r="E27">
-        <v>0.05281085940067123</v>
+        <v>-0.004335750386318699</v>
       </c>
       <c r="F27">
-        <v>0.06281354100895155</v>
+        <v>0.02695574186147253</v>
       </c>
       <c r="G27">
-        <v>0.06442138807785194</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>0.02644980204806163</v>
+      </c>
+      <c r="H27">
+        <v>0.0001954041215264708</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.08507577115651989</v>
+        <v>0.1330937720469145</v>
       </c>
       <c r="C28">
-        <v>0.06572283194448121</v>
+        <v>0.0550298945951116</v>
       </c>
       <c r="D28">
-        <v>-0.04337796061504668</v>
+        <v>0.2125840193363508</v>
       </c>
       <c r="E28">
-        <v>-0.1771674887812245</v>
+        <v>0.02766388618587945</v>
       </c>
       <c r="F28">
-        <v>0.05994846663619618</v>
+        <v>-0.1094384428617817</v>
       </c>
       <c r="G28">
-        <v>0.02473638812474422</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>0.008971579288037049</v>
+      </c>
+      <c r="H28">
+        <v>0.008103585195931467</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.01930437254341064</v>
+        <v>0.02055124912389926</v>
       </c>
       <c r="C29">
-        <v>0.02492640449847211</v>
+        <v>0.005541310619025097</v>
       </c>
       <c r="D29">
-        <v>-0.00208616882158147</v>
+        <v>-0.002704412201150407</v>
       </c>
       <c r="E29">
-        <v>0.0566368971530832</v>
+        <v>-0.01024458062527118</v>
       </c>
       <c r="F29">
-        <v>0.0514744611072743</v>
+        <v>0.02921697001800916</v>
       </c>
       <c r="G29">
-        <v>0.05801777280356504</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>0.03339792934178254</v>
+      </c>
+      <c r="H29">
+        <v>0.01917478972993229</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.07853907298549614</v>
+        <v>0.05366952284359604</v>
       </c>
       <c r="C30">
-        <v>0.05886457350436214</v>
+        <v>0.004990215087169732</v>
       </c>
       <c r="D30">
-        <v>0.03406920923329964</v>
+        <v>-0.05093560866045196</v>
       </c>
       <c r="E30">
-        <v>0.09005211950557591</v>
+        <v>0.03212328390745952</v>
       </c>
       <c r="F30">
-        <v>0.0555847784828999</v>
+        <v>0.08023940016144905</v>
       </c>
       <c r="G30">
-        <v>0.03105490872814233</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>0.05848460211207602</v>
+      </c>
+      <c r="H30">
+        <v>-0.03977456574396406</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.05775665630145849</v>
+        <v>0.05195363190281781</v>
       </c>
       <c r="C31">
-        <v>0.02080675418588355</v>
+        <v>0.02298735360908933</v>
       </c>
       <c r="D31">
-        <v>0.04590081734104287</v>
+        <v>-0.02062875772125316</v>
       </c>
       <c r="E31">
-        <v>0.03329978756063328</v>
+        <v>0.008530802088002162</v>
       </c>
       <c r="F31">
-        <v>0.03848715994155644</v>
+        <v>0.02350555555959625</v>
       </c>
       <c r="G31">
-        <v>0.08820395231550608</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>0.01903877899747072</v>
+      </c>
+      <c r="H31">
+        <v>0.01415744568310195</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.01344824098909778</v>
+        <v>0.00745794708977852</v>
       </c>
       <c r="C32">
-        <v>0.02487409020721955</v>
+        <v>0.01571395013257296</v>
       </c>
       <c r="D32">
-        <v>-0.0007306721601823721</v>
+        <v>0.008806819303153822</v>
       </c>
       <c r="E32">
-        <v>0.06682659041131224</v>
+        <v>-0.01893419471134708</v>
       </c>
       <c r="F32">
-        <v>0.07032639747251608</v>
+        <v>0.04264516382484271</v>
       </c>
       <c r="G32">
-        <v>0.04439441163685484</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>0.04910964634849389</v>
+      </c>
+      <c r="H32">
+        <v>-0.04429355680708711</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.04971580583403804</v>
+        <v>0.03837977529708331</v>
       </c>
       <c r="C33">
-        <v>0.005219037364693238</v>
+        <v>0.006524470664482271</v>
       </c>
       <c r="D33">
-        <v>0.04566847260101274</v>
+        <v>-0.02910361703158084</v>
       </c>
       <c r="E33">
-        <v>0.06235342977549824</v>
+        <v>0.02177911838509663</v>
       </c>
       <c r="F33">
-        <v>0.09412282949820916</v>
+        <v>0.01642932428856231</v>
       </c>
       <c r="G33">
-        <v>0.04623346459749478</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>0.05669498961951937</v>
+      </c>
+      <c r="H33">
+        <v>-0.01910225291184528</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.02904414578027353</v>
+        <v>0.02462640639730831</v>
       </c>
       <c r="C34">
-        <v>0.01744056121144485</v>
+        <v>0.02089846935008276</v>
       </c>
       <c r="D34">
-        <v>0.01221672524762713</v>
+        <v>-0.02605110916309395</v>
       </c>
       <c r="E34">
-        <v>0.03749739415900897</v>
+        <v>-0.006618238565765363</v>
       </c>
       <c r="F34">
-        <v>0.04393885350878734</v>
+        <v>0.02713854803130775</v>
       </c>
       <c r="G34">
-        <v>0.01410820231295737</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>0.02577939444347254</v>
+      </c>
+      <c r="H34">
+        <v>-0.02668519943598965</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1505,33 +1610,39 @@
       <c r="G35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.01338176826830735</v>
+        <v>0.01909500522088663</v>
       </c>
       <c r="C36">
-        <v>0.01187560676564629</v>
+        <v>-0.001276374826021601</v>
       </c>
       <c r="D36">
-        <v>0.002064121028681545</v>
+        <v>0.003499102271244612</v>
       </c>
       <c r="E36">
-        <v>0.02368868415945262</v>
+        <v>-0.002437378531058899</v>
       </c>
       <c r="F36">
-        <v>0.02922129734080147</v>
+        <v>0.007384913956786802</v>
       </c>
       <c r="G36">
-        <v>0.0357341706336657</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>0.01799201478204916</v>
+      </c>
+      <c r="H36">
+        <v>0.004096145034649322</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,171 +1662,195 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.00799972791370915</v>
+        <v>0.01586196075926428</v>
       </c>
       <c r="C38">
-        <v>-0.0006596591995695276</v>
+        <v>0.0182917837742933</v>
       </c>
       <c r="D38">
-        <v>-0.01240372844777014</v>
+        <v>0.00428781961075253</v>
       </c>
       <c r="E38">
-        <v>-0.006820620014250794</v>
+        <v>-0.005909037905289954</v>
       </c>
       <c r="F38">
-        <v>0.001054748519503124</v>
+        <v>0.008460366712870253</v>
       </c>
       <c r="G38">
-        <v>-0.003364446364424129</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>0.02475235692698046</v>
+      </c>
+      <c r="H38">
+        <v>-0.02130625163193096</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.03769984049673346</v>
+        <v>0.02330939710325323</v>
       </c>
       <c r="C39">
-        <v>0.02292637415100265</v>
+        <v>0.004840001036071213</v>
       </c>
       <c r="D39">
-        <v>0.02980597997239079</v>
+        <v>-0.06372479915520464</v>
       </c>
       <c r="E39">
-        <v>0.03884429249646266</v>
+        <v>0.000123448555166056</v>
       </c>
       <c r="F39">
-        <v>0.04839911282405757</v>
+        <v>0.04665178426004921</v>
       </c>
       <c r="G39">
-        <v>0.01702232493082033</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>0.05195694429786817</v>
+      </c>
+      <c r="H39">
+        <v>-0.05268553451883837</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.02831200255171211</v>
+        <v>0.02787289462148951</v>
       </c>
       <c r="C40">
-        <v>0.03801188314686298</v>
+        <v>0.004761233101155573</v>
       </c>
       <c r="D40">
-        <v>0.05481970894097534</v>
+        <v>-0.02168234464157841</v>
       </c>
       <c r="E40">
-        <v>0.03827658554865908</v>
+        <v>0.01803365526323471</v>
       </c>
       <c r="F40">
-        <v>0.08284994059222973</v>
+        <v>0.03978830188915049</v>
       </c>
       <c r="G40">
-        <v>0.06167322086651247</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>0.03425863633002747</v>
+      </c>
+      <c r="H40">
+        <v>-0.04618929050551869</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>-0.002026761130380638</v>
+        <v>0.007906294488111476</v>
       </c>
       <c r="C41">
-        <v>-0.00883397398479387</v>
+        <v>-0.0002346102044241115</v>
       </c>
       <c r="D41">
-        <v>0.006145727958454757</v>
+        <v>0.009067437618590338</v>
       </c>
       <c r="E41">
-        <v>0.015157649199357</v>
+        <v>0.001497849202758008</v>
       </c>
       <c r="F41">
-        <v>0.01977272102508917</v>
+        <v>-0.005546605662376158</v>
       </c>
       <c r="G41">
-        <v>0.05641612421558428</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>0.007796350131312198</v>
+      </c>
+      <c r="H41">
+        <v>0.01739739124466755</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B42">
-        <v>0.396407784281037</v>
+        <v>0.2300986661018703</v>
       </c>
       <c r="C42">
-        <v>-0.8793534638461813</v>
+        <v>-0.07252327558621548</v>
       </c>
       <c r="D42">
-        <v>0.1700456958328657</v>
+        <v>-0.58972097777181</v>
       </c>
       <c r="E42">
-        <v>-0.10063307273248</v>
+        <v>0.1200067639155426</v>
       </c>
       <c r="F42">
-        <v>-0.02369181191057949</v>
+        <v>-0.7470558105979569</v>
       </c>
       <c r="G42">
-        <v>0.006676905435141284</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>-0.06935194606094001</v>
+      </c>
+      <c r="H42">
+        <v>-0.01432646241126198</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>-0.008845637474963726</v>
+        <v>0.005560916356281106</v>
       </c>
       <c r="C43">
-        <v>-0.005134714317191629</v>
+        <v>-0.002791050581922049</v>
       </c>
       <c r="D43">
-        <v>0.01055583796321957</v>
+        <v>0.01129635304033087</v>
       </c>
       <c r="E43">
-        <v>0.01555440454818299</v>
+        <v>0.005695612529701176</v>
       </c>
       <c r="F43">
-        <v>0.03704998120138123</v>
+        <v>-0.009961037720284038</v>
       </c>
       <c r="G43">
-        <v>0.05359101428921658</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>0.01542905228850535</v>
+      </c>
+      <c r="H43">
+        <v>0.009281413655109113</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.01661580598767411</v>
+        <v>0.01200431021881549</v>
       </c>
       <c r="C44">
-        <v>0.006854015024856154</v>
+        <v>0.001168986312455502</v>
       </c>
       <c r="D44">
-        <v>0.02187023994824264</v>
+        <v>-0.01918324748278529</v>
       </c>
       <c r="E44">
-        <v>0.04899109328779619</v>
+        <v>-0.00221601895809866</v>
       </c>
       <c r="F44">
-        <v>0.1949751434492213</v>
+        <v>0.005788610688908081</v>
       </c>
       <c r="G44">
-        <v>0.1675887624882043</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>0.08491792193809293</v>
+      </c>
+      <c r="H44">
+        <v>-0.01841991742091115</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,79 +1870,91 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.01864775591995616</v>
+        <v>0.02202052293479695</v>
       </c>
       <c r="C46">
-        <v>0.02306308473207458</v>
+        <v>0.002163328962318293</v>
       </c>
       <c r="D46">
-        <v>0.02261999394399414</v>
+        <v>-0.004982807719081033</v>
       </c>
       <c r="E46">
-        <v>0.06345417921451364</v>
+        <v>0.001718840519316057</v>
       </c>
       <c r="F46">
-        <v>0.07372858067870801</v>
+        <v>0.03377498263890902</v>
       </c>
       <c r="G46">
-        <v>0.04510759277495218</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>0.05334407966253585</v>
+      </c>
+      <c r="H46">
+        <v>0.01214700757066609</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.09373644848123325</v>
+        <v>0.07098768291252922</v>
       </c>
       <c r="C47">
-        <v>0.0366543469601849</v>
+        <v>0.04178117101404354</v>
       </c>
       <c r="D47">
-        <v>0.02389527565702627</v>
+        <v>-0.02767200883689669</v>
       </c>
       <c r="E47">
-        <v>0.04308557150868943</v>
+        <v>0.00421117245643459</v>
       </c>
       <c r="F47">
-        <v>0.006706508021678809</v>
+        <v>0.03421673998264681</v>
       </c>
       <c r="G47">
-        <v>0.094308388060738</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>-0.01203422392128834</v>
+      </c>
+      <c r="H47">
+        <v>0.03144404672188453</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.009577866330530363</v>
+        <v>0.01727002997324817</v>
       </c>
       <c r="C48">
-        <v>0.008253746436342567</v>
+        <v>0.008339256710821728</v>
       </c>
       <c r="D48">
-        <v>0.01379804046072014</v>
+        <v>-0.002725158154740001</v>
       </c>
       <c r="E48">
-        <v>0.03592303075000536</v>
+        <v>0.001227652437283493</v>
       </c>
       <c r="F48">
-        <v>0.0427605244512959</v>
+        <v>0.01276533270437541</v>
       </c>
       <c r="G48">
-        <v>0.01079509648603</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>0.02495988844838543</v>
+      </c>
+      <c r="H48">
+        <v>-0.0009262667194847115</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1827,56 +1974,65 @@
       <c r="G49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.08503872387637831</v>
+        <v>0.06405482404514878</v>
       </c>
       <c r="C50">
-        <v>0.01948124004371822</v>
+        <v>0.03478654939378111</v>
       </c>
       <c r="D50">
-        <v>0.03589457759650974</v>
+        <v>-0.03848704140531244</v>
       </c>
       <c r="E50">
-        <v>0.05565028634747014</v>
+        <v>-0.01096511619386189</v>
       </c>
       <c r="F50">
-        <v>0.02980434404195724</v>
+        <v>0.03053552464770702</v>
       </c>
       <c r="G50">
-        <v>0.02133755875464172</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>0.01985683296731557</v>
+      </c>
+      <c r="H50">
+        <v>0.02589123869328333</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.03834649090913857</v>
+        <v>0.02575805893459876</v>
       </c>
       <c r="C51">
-        <v>-0.001250416950223285</v>
+        <v>0.004806810226766883</v>
       </c>
       <c r="D51">
-        <v>0.04240242052912159</v>
+        <v>0.005989644732756833</v>
       </c>
       <c r="E51">
-        <v>0.00495475987457392</v>
+        <v>0.01316611117979009</v>
       </c>
       <c r="F51">
-        <v>0.1483742778142133</v>
+        <v>-0.01739912661014455</v>
       </c>
       <c r="G51">
-        <v>0.06360288991764079</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>0.07510327478149011</v>
+      </c>
+      <c r="H51">
+        <v>-0.02117013514960699</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1896,217 +2052,247 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.1030176604397234</v>
+        <v>0.08996663618350798</v>
       </c>
       <c r="C53">
-        <v>0.05055923550068667</v>
+        <v>0.05199715426653</v>
       </c>
       <c r="D53">
-        <v>0.04336029071905813</v>
+        <v>-0.05404131494104316</v>
       </c>
       <c r="E53">
-        <v>0.05493544712990883</v>
+        <v>0.001402783008881397</v>
       </c>
       <c r="F53">
-        <v>-0.05503560636014546</v>
+        <v>0.06787764648164457</v>
       </c>
       <c r="G53">
-        <v>0.04105907694562266</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>-0.05718603983542357</v>
+      </c>
+      <c r="H53">
+        <v>0.0373754706788707</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.02208008455756334</v>
+        <v>0.0236982247767599</v>
       </c>
       <c r="C54">
-        <v>0.03841884172565615</v>
+        <v>0.01744300676658207</v>
       </c>
       <c r="D54">
-        <v>0.002263702387025371</v>
+        <v>0.0233860616005838</v>
       </c>
       <c r="E54">
-        <v>0.02847229327545315</v>
+        <v>-0.002525580541435358</v>
       </c>
       <c r="F54">
-        <v>0.08121002745772084</v>
+        <v>0.01175543322390701</v>
       </c>
       <c r="G54">
-        <v>0.0653084564623036</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>0.0396092749245128</v>
+      </c>
+      <c r="H54">
+        <v>0.01733738701535705</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.09852383416012203</v>
+        <v>0.07757650618102377</v>
       </c>
       <c r="C55">
-        <v>0.03599656198209267</v>
+        <v>0.04580971841176427</v>
       </c>
       <c r="D55">
-        <v>-0.001012805561215676</v>
+        <v>-0.05197938538428588</v>
       </c>
       <c r="E55">
-        <v>0.0597907062803171</v>
+        <v>-0.01103712180502981</v>
       </c>
       <c r="F55">
-        <v>-0.04165566342197951</v>
+        <v>0.0568007156901868</v>
       </c>
       <c r="G55">
-        <v>0.05862228548101096</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>-0.03333657003652523</v>
+      </c>
+      <c r="H55">
+        <v>0.04855653487322692</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.140354294186455</v>
+        <v>0.1179928710886208</v>
       </c>
       <c r="C56">
-        <v>0.0781595323859773</v>
+        <v>0.07492519707945666</v>
       </c>
       <c r="D56">
-        <v>0.03021093121801781</v>
+        <v>-0.07195935068778431</v>
       </c>
       <c r="E56">
-        <v>0.07717726898135552</v>
+        <v>-0.003932065458988158</v>
       </c>
       <c r="F56">
-        <v>-0.158891712820789</v>
+        <v>0.09596194730245562</v>
       </c>
       <c r="G56">
-        <v>0.02931739357193977</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>-0.09997358558655454</v>
+      </c>
+      <c r="H56">
+        <v>0.0306181180507707</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B57">
-        <v>0.04346057848554672</v>
+        <v>0.0446851131696046</v>
       </c>
       <c r="C57">
-        <v>0.01879592472900044</v>
+        <v>-0.001272384050319402</v>
       </c>
       <c r="D57">
-        <v>0.02813420345840283</v>
+        <v>-0.01560884519533101</v>
       </c>
       <c r="E57">
-        <v>0.01151436093790223</v>
+        <v>0.01016963563642723</v>
       </c>
       <c r="F57">
-        <v>0.06764337347260824</v>
+        <v>0.02783898778321092</v>
       </c>
       <c r="G57">
-        <v>0.02277300871863604</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>0.05986423794403075</v>
+      </c>
+      <c r="H57">
+        <v>-0.0146905849148725</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.2043400080677978</v>
+        <v>0.1537840009935086</v>
       </c>
       <c r="C58">
-        <v>0.06875959496712175</v>
+        <v>0.07252942844136259</v>
       </c>
       <c r="D58">
-        <v>0.1157605884398574</v>
+        <v>-0.1124029729766267</v>
       </c>
       <c r="E58">
-        <v>0.2180490116321334</v>
+        <v>0.1169606086842227</v>
       </c>
       <c r="F58">
-        <v>0.3030486047584953</v>
+        <v>0.06640939810034381</v>
       </c>
       <c r="G58">
-        <v>-0.3769568619812144</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>0.7046835305809745</v>
+      </c>
+      <c r="H58">
+        <v>0.525757363095004</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.08209050638224427</v>
+        <v>0.1342803956758507</v>
       </c>
       <c r="C59">
-        <v>0.0886476651246659</v>
+        <v>0.06211450593571075</v>
       </c>
       <c r="D59">
-        <v>-0.03372673273244216</v>
+        <v>0.2109399914942185</v>
       </c>
       <c r="E59">
-        <v>-0.1523602161992806</v>
+        <v>0.04414955300228929</v>
       </c>
       <c r="F59">
-        <v>0.05668071068998471</v>
+        <v>-0.09009196954322209</v>
       </c>
       <c r="G59">
-        <v>-0.005822315746472088</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>0.01488837336643512</v>
+      </c>
+      <c r="H59">
+        <v>-0.0233288162992749</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.1685072182107514</v>
+        <v>0.1684776086020696</v>
       </c>
       <c r="C60">
-        <v>0.07005335581060992</v>
+        <v>0.06761506109952815</v>
       </c>
       <c r="D60">
-        <v>0.06583202463219449</v>
+        <v>-0.009707728026148233</v>
       </c>
       <c r="E60">
-        <v>0.03016707474848618</v>
+        <v>0.05311445460998365</v>
       </c>
       <c r="F60">
-        <v>0.07856906633476597</v>
+        <v>0.06673279034973391</v>
       </c>
       <c r="G60">
-        <v>-0.2778198606194044</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>0.1150850677720934</v>
+      </c>
+      <c r="H60">
+        <v>-0.3769127751395995</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.02064640747273747</v>
+        <v>0.02231374035816458</v>
       </c>
       <c r="C61">
-        <v>0.01372114740414021</v>
+        <v>0.01037255283928385</v>
       </c>
       <c r="D61">
-        <v>0.005075246237131211</v>
+        <v>-0.0331334573170352</v>
       </c>
       <c r="E61">
-        <v>0.0180424519190906</v>
+        <v>-0.003735074901018546</v>
       </c>
       <c r="F61">
-        <v>0.03618284721531103</v>
+        <v>0.03378372548351654</v>
       </c>
       <c r="G61">
-        <v>0.005055268830810204</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>0.03038950969315071</v>
+      </c>
+      <c r="H61">
+        <v>-0.03867869782898301</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -2126,171 +2312,195 @@
       <c r="G62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.01723823958502193</v>
+        <v>0.01405689187081857</v>
       </c>
       <c r="C63">
-        <v>0.0173268196979248</v>
+        <v>0.001143844236267565</v>
       </c>
       <c r="D63">
-        <v>0.01371129243245267</v>
+        <v>-0.003921050845908132</v>
       </c>
       <c r="E63">
-        <v>0.03665279114777106</v>
+        <v>-0.002381575931511845</v>
       </c>
       <c r="F63">
-        <v>0.01791773095818367</v>
+        <v>0.02177707140887464</v>
       </c>
       <c r="G63">
-        <v>0.03920246107028373</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>0.01501447047519077</v>
+      </c>
+      <c r="H63">
+        <v>0.01198394353376036</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.0297890986665888</v>
+        <v>0.03776840099996917</v>
       </c>
       <c r="C64">
-        <v>0.02229093973146518</v>
+        <v>0.01602934313073387</v>
       </c>
       <c r="D64">
-        <v>-0.01856384515426114</v>
+        <v>-0.02951091627153582</v>
       </c>
       <c r="E64">
-        <v>0.04160383166593795</v>
+        <v>-0.01320159863698941</v>
       </c>
       <c r="F64">
-        <v>0.02420494239173446</v>
+        <v>0.02859015126706123</v>
       </c>
       <c r="G64">
-        <v>0.0735966103385885</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>0.01390021707507405</v>
+      </c>
+      <c r="H64">
+        <v>-0.02852740256901461</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.01168485538581423</v>
+        <v>0.03508903072351505</v>
       </c>
       <c r="C65">
-        <v>7.808890262706561e-05</v>
+        <v>0.001715578549972901</v>
       </c>
       <c r="D65">
-        <v>0.01007164603643419</v>
+        <v>-0.03801962065238729</v>
       </c>
       <c r="E65">
-        <v>0.005109055380748025</v>
+        <v>-0.006777271891410249</v>
       </c>
       <c r="F65">
-        <v>0.008132220153297186</v>
+        <v>0.03884676096643899</v>
       </c>
       <c r="G65">
-        <v>-0.01859114886067999</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>0.001504293042519415</v>
+      </c>
+      <c r="H65">
+        <v>-0.0601027983978657</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.03472078249098937</v>
+        <v>0.02904349804632891</v>
       </c>
       <c r="C66">
-        <v>0.02589856615145291</v>
+        <v>0.01068219521313842</v>
       </c>
       <c r="D66">
-        <v>0.02295541366074064</v>
+        <v>-0.07124264676679549</v>
       </c>
       <c r="E66">
-        <v>0.04428353942622346</v>
+        <v>0.004594110741311028</v>
       </c>
       <c r="F66">
-        <v>0.03989357037894687</v>
+        <v>0.06646340514535934</v>
       </c>
       <c r="G66">
-        <v>0.01014505410840016</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>0.04180194438441021</v>
+      </c>
+      <c r="H66">
+        <v>-0.06332222287653994</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.02657611536121023</v>
+        <v>0.03513690389884899</v>
       </c>
       <c r="C67">
-        <v>0.008214041478559453</v>
+        <v>0.02470471725507482</v>
       </c>
       <c r="D67">
-        <v>-0.0158254348700208</v>
+        <v>0.01107690032662391</v>
       </c>
       <c r="E67">
-        <v>-0.03250710240960326</v>
+        <v>-0.002385535270669645</v>
       </c>
       <c r="F67">
-        <v>0.005183100594561127</v>
+        <v>0.0105170649464099</v>
       </c>
       <c r="G67">
-        <v>-0.001031038662003576</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>0.01390137324714597</v>
+      </c>
+      <c r="H67">
+        <v>-0.03212221373898536</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.0905978329815695</v>
+        <v>0.1377270374654569</v>
       </c>
       <c r="C68">
-        <v>0.07123970030334319</v>
+        <v>0.04050227609424654</v>
       </c>
       <c r="D68">
-        <v>-0.04961424967010921</v>
+        <v>0.19626908233691</v>
       </c>
       <c r="E68">
-        <v>-0.1724309458309818</v>
+        <v>0.03913750088938144</v>
       </c>
       <c r="F68">
-        <v>0.02908089647105955</v>
+        <v>-0.1083734484448401</v>
       </c>
       <c r="G68">
-        <v>-0.05902622718803732</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>0.01679041216672725</v>
+      </c>
+      <c r="H68">
+        <v>0.03736861397698517</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.07290363933248552</v>
+        <v>0.05547082276716448</v>
       </c>
       <c r="C69">
-        <v>0.0358261835872378</v>
+        <v>0.03755280383262932</v>
       </c>
       <c r="D69">
-        <v>0.02463104827595449</v>
+        <v>-0.02560371246983384</v>
       </c>
       <c r="E69">
-        <v>0.006692318131331595</v>
+        <v>0.004125449597904851</v>
       </c>
       <c r="F69">
-        <v>0.02207994043442984</v>
+        <v>0.0329963530645906</v>
       </c>
       <c r="G69">
-        <v>0.07211360050856715</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>-0.005068797724247559</v>
+      </c>
+      <c r="H69">
+        <v>0.0126162606534866</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2310,194 +2520,221 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.1085584786043949</v>
+        <v>0.1316038655089611</v>
       </c>
       <c r="C71">
-        <v>0.074541654913283</v>
+        <v>0.04816528217399185</v>
       </c>
       <c r="D71">
-        <v>-0.02829311858031554</v>
+        <v>0.1843213644938107</v>
       </c>
       <c r="E71">
-        <v>-0.21827620284752</v>
+        <v>0.03929641077955332</v>
       </c>
       <c r="F71">
-        <v>0.04362035292346722</v>
+        <v>-0.1146414011971284</v>
       </c>
       <c r="G71">
-        <v>-0.002249614314151555</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>0.01419052551154219</v>
+      </c>
+      <c r="H71">
+        <v>0.02099560740120944</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.108010198608386</v>
+        <v>0.08465440899120688</v>
       </c>
       <c r="C72">
-        <v>0.1010958713307064</v>
+        <v>0.05774020666422346</v>
       </c>
       <c r="D72">
-        <v>0.01684634657174799</v>
+        <v>-0.05337246262298376</v>
       </c>
       <c r="E72">
-        <v>0.06765766843271474</v>
+        <v>0.006628394814629022</v>
       </c>
       <c r="F72">
-        <v>0.08522566671439109</v>
+        <v>0.1135538443962222</v>
       </c>
       <c r="G72">
-        <v>-0.1577732285950336</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>0.09008494807090109</v>
+      </c>
+      <c r="H72">
+        <v>-0.1502081684946341</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.2534765021895416</v>
+        <v>0.2372414367407153</v>
       </c>
       <c r="C73">
-        <v>0.1017821608134256</v>
+        <v>0.09025992806665686</v>
       </c>
       <c r="D73">
-        <v>0.06167563090626008</v>
+        <v>-0.03997958146051118</v>
       </c>
       <c r="E73">
-        <v>-0.005966064989566468</v>
+        <v>0.08259824117669974</v>
       </c>
       <c r="F73">
-        <v>0.1490790917300874</v>
+        <v>0.08389274712785044</v>
       </c>
       <c r="G73">
-        <v>-0.4298928797109491</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>0.1706466873010059</v>
+      </c>
+      <c r="H73">
+        <v>-0.5143751255028324</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.1220549100613341</v>
+        <v>0.1066274691852283</v>
       </c>
       <c r="C74">
-        <v>0.04400196468568322</v>
+        <v>0.06686138552012559</v>
       </c>
       <c r="D74">
-        <v>0.03351893475540163</v>
+        <v>-0.07230233200153602</v>
       </c>
       <c r="E74">
-        <v>0.03439921951001063</v>
+        <v>0.004612700122532157</v>
       </c>
       <c r="F74">
-        <v>-0.1109746675590273</v>
+        <v>0.07828553274573061</v>
       </c>
       <c r="G74">
-        <v>0.02000895647862233</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>-0.07790644223935181</v>
+      </c>
+      <c r="H74">
+        <v>0.009652656915009092</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.2116069858110241</v>
+        <v>0.2106519125631214</v>
       </c>
       <c r="C75">
-        <v>0.120009595148356</v>
+        <v>0.1346284745347119</v>
       </c>
       <c r="D75">
-        <v>0.07372075099964613</v>
+        <v>-0.1105197480417016</v>
       </c>
       <c r="E75">
-        <v>0.1002963291701825</v>
+        <v>0.0218912631715966</v>
       </c>
       <c r="F75">
-        <v>-0.1731883620016459</v>
+        <v>0.1593253140416655</v>
       </c>
       <c r="G75">
-        <v>0.1021161631591492</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>-0.1589248984692936</v>
+      </c>
+      <c r="H75">
+        <v>0.09605609541871904</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.250328634129649</v>
+        <v>0.196059992217569</v>
       </c>
       <c r="C76">
-        <v>0.1219321041208262</v>
+        <v>0.1294582723473915</v>
       </c>
       <c r="D76">
-        <v>0.01358939174740182</v>
+        <v>-0.09815999732780195</v>
       </c>
       <c r="E76">
-        <v>0.06360728223070804</v>
+        <v>-0.01883926412072336</v>
       </c>
       <c r="F76">
-        <v>-0.1914404140196905</v>
+        <v>0.1524056651592902</v>
       </c>
       <c r="G76">
-        <v>0.09012723564768928</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>-0.1736704551404897</v>
+      </c>
+      <c r="H76">
+        <v>0.09931094467027435</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.1323584654996494</v>
+        <v>0.07238604251018022</v>
       </c>
       <c r="C77">
-        <v>-0.0124525341016088</v>
+        <v>0.02022152177704081</v>
       </c>
       <c r="D77">
-        <v>0.07488462490806677</v>
+        <v>-0.07331530474508459</v>
       </c>
       <c r="E77">
-        <v>0.08780849079942697</v>
+        <v>0.01261402958238374</v>
       </c>
       <c r="F77">
-        <v>0.2383933404630168</v>
+        <v>0.009085978758791342</v>
       </c>
       <c r="G77">
-        <v>0.1463288620727249</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>0.1279772231094788</v>
+      </c>
+      <c r="H77">
+        <v>0.05685331383115497</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.04814775093532704</v>
+        <v>0.03249975623324578</v>
       </c>
       <c r="C78">
-        <v>0.01299516489131396</v>
+        <v>0.01379753746733858</v>
       </c>
       <c r="D78">
-        <v>0.03254707430794767</v>
+        <v>-0.05525914642766923</v>
       </c>
       <c r="E78">
-        <v>0.1000492587525642</v>
+        <v>-0.005943649324158906</v>
       </c>
       <c r="F78">
-        <v>0.04254166496698676</v>
+        <v>0.05089766271778756</v>
       </c>
       <c r="G78">
-        <v>0.06874820694635975</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>0.04959183176444864</v>
+      </c>
+      <c r="H78">
+        <v>-0.03151281609268616</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2517,56 +2754,65 @@
       <c r="G79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:7">
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.1992934892156167</v>
+        <v>0.1703430088916337</v>
       </c>
       <c r="C80">
-        <v>-0.1304660018762856</v>
+        <v>0.08111558261268395</v>
       </c>
       <c r="D80">
-        <v>-0.9213572645910738</v>
+        <v>0.00222537751283734</v>
       </c>
       <c r="E80">
-        <v>0.2689334723597285</v>
+        <v>-0.9597975033703084</v>
       </c>
       <c r="F80">
-        <v>0.04011990699592387</v>
+        <v>-0.1278361328677631</v>
       </c>
       <c r="G80">
-        <v>-0.02377465049870797</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>0.100562847791229</v>
+      </c>
+      <c r="H80">
+        <v>-0.009197939125587612</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.147928145307867</v>
+        <v>0.1420717730670388</v>
       </c>
       <c r="C81">
-        <v>0.1021036792701809</v>
+        <v>0.09093528341562225</v>
       </c>
       <c r="D81">
-        <v>0.02230309331785675</v>
+        <v>-0.06333178537792095</v>
       </c>
       <c r="E81">
-        <v>0.07018573559107358</v>
+        <v>-0.000246979479520653</v>
       </c>
       <c r="F81">
-        <v>-0.1714936895394424</v>
+        <v>0.1105934456619501</v>
       </c>
       <c r="G81">
-        <v>0.02621524951860957</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>-0.1040947691774276</v>
+      </c>
+      <c r="H81">
+        <v>0.07089756909171183</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2586,33 +2832,39 @@
       <c r="G82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="H82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.04901097202609275</v>
+        <v>0.03704994638934829</v>
       </c>
       <c r="C83">
-        <v>-0.01138578584506825</v>
+        <v>0.0131525047854088</v>
       </c>
       <c r="D83">
-        <v>0.03890934144642881</v>
+        <v>-0.0202870562554237</v>
       </c>
       <c r="E83">
-        <v>0.03801717895516558</v>
+        <v>0.01212324507312491</v>
       </c>
       <c r="F83">
-        <v>0.06989169926663927</v>
+        <v>0.01354475992510321</v>
       </c>
       <c r="G83">
-        <v>0.0639790169452782</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>0.05190863287194748</v>
+      </c>
+      <c r="H83">
+        <v>-0.01747318479085962</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2632,263 +2884,299 @@
       <c r="G84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:7">
+      <c r="H84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.2215798829037056</v>
+        <v>0.2018094678274234</v>
       </c>
       <c r="C85">
-        <v>0.103710896539111</v>
+        <v>0.1157533414962925</v>
       </c>
       <c r="D85">
-        <v>0.04565945242405613</v>
+        <v>-0.1176560409930203</v>
       </c>
       <c r="E85">
-        <v>0.06761346797441337</v>
+        <v>0.01092224655241168</v>
       </c>
       <c r="F85">
-        <v>-0.1900673017988666</v>
+        <v>0.144914879077909</v>
       </c>
       <c r="G85">
-        <v>0.09558192802128808</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>-0.1688794751473637</v>
+      </c>
+      <c r="H85">
+        <v>0.07056175478032191</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>-0.00342272742125502</v>
+        <v>0.01349595421550559</v>
       </c>
       <c r="C86">
-        <v>-0.009468488146039528</v>
+        <v>-0.0002078624718590515</v>
       </c>
       <c r="D86">
-        <v>0.005977017720360263</v>
+        <v>-0.006368715788805915</v>
       </c>
       <c r="E86">
-        <v>0.05361320950807837</v>
+        <v>0.009102709416473679</v>
       </c>
       <c r="F86">
-        <v>0.07517812936914681</v>
+        <v>8.777889525515149e-05</v>
       </c>
       <c r="G86">
-        <v>0.03534045325364022</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>0.07929017724862855</v>
+      </c>
+      <c r="H86">
+        <v>-0.0438859311311739</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.02911345447662475</v>
+        <v>0.02581835333555776</v>
       </c>
       <c r="C87">
-        <v>0.007679392746754875</v>
+        <v>0.006340031110166547</v>
       </c>
       <c r="D87">
-        <v>0.01308306486625147</v>
+        <v>-0.0258665425431047</v>
       </c>
       <c r="E87">
-        <v>0.03708216927309742</v>
+        <v>4.10431414570943e-05</v>
       </c>
       <c r="F87">
-        <v>0.07462714777649522</v>
+        <v>0.02726213486380384</v>
       </c>
       <c r="G87">
-        <v>-0.006824127470225771</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>0.08854380383917804</v>
+      </c>
+      <c r="H87">
+        <v>-0.03237931373002015</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.009104155723168283</v>
+        <v>0.03796771602660021</v>
       </c>
       <c r="C88">
-        <v>0.0180446734943348</v>
+        <v>-0.004750984746679786</v>
       </c>
       <c r="D88">
-        <v>-0.02288706839285306</v>
+        <v>0.006506375356803948</v>
       </c>
       <c r="E88">
-        <v>-0.004515635450454874</v>
+        <v>-0.007427344396822995</v>
       </c>
       <c r="F88">
-        <v>0.03045340115494405</v>
+        <v>0.01211150426034503</v>
       </c>
       <c r="G88">
-        <v>0.08596786454075055</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>-0.005266778977963954</v>
+      </c>
+      <c r="H88">
+        <v>-0.007976029892385873</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.1300695804040273</v>
+        <v>0.211602251913978</v>
       </c>
       <c r="C89">
-        <v>0.0953032457272734</v>
+        <v>0.0733839051437329</v>
       </c>
       <c r="D89">
-        <v>-0.04245538906324165</v>
+        <v>0.3196390367731559</v>
       </c>
       <c r="E89">
-        <v>-0.3120369982334988</v>
+        <v>0.0834136480668652</v>
       </c>
       <c r="F89">
-        <v>0.103432601326995</v>
+        <v>-0.1657377205258223</v>
       </c>
       <c r="G89">
-        <v>0.05896632964332123</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>-0.005960432340094998</v>
+      </c>
+      <c r="H89">
+        <v>0.02605621471162677</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.1185859991369843</v>
+        <v>0.1686636110777752</v>
       </c>
       <c r="C90">
-        <v>0.1012873446753906</v>
+        <v>0.05975951164778033</v>
       </c>
       <c r="D90">
-        <v>-0.09035426389316588</v>
+        <v>0.2807991598166193</v>
       </c>
       <c r="E90">
-        <v>-0.2776948198513056</v>
+        <v>0.05489539729172755</v>
       </c>
       <c r="F90">
-        <v>0.05818326500705723</v>
+        <v>-0.1563606649161362</v>
       </c>
       <c r="G90">
-        <v>-0.01705307447689764</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>-0.0383641785278617</v>
+      </c>
+      <c r="H90">
+        <v>0.04437993107172508</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.2851565585225019</v>
+        <v>0.2186968599019525</v>
       </c>
       <c r="C91">
-        <v>0.09927234179618201</v>
+        <v>0.1374429002133175</v>
       </c>
       <c r="D91">
-        <v>0.06283205795850415</v>
+        <v>-0.1182342908025083</v>
       </c>
       <c r="E91">
-        <v>0.05935759720115064</v>
+        <v>0.01331782461316589</v>
       </c>
       <c r="F91">
-        <v>-0.255754820842351</v>
+        <v>0.1501928247500143</v>
       </c>
       <c r="G91">
-        <v>0.05524395063368071</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>-0.2108788715605833</v>
+      </c>
+      <c r="H91">
+        <v>0.1327443146605704</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.1893154858064546</v>
+        <v>0.2208918996153797</v>
       </c>
       <c r="C92">
-        <v>0.07288411084596566</v>
+        <v>0.1330787720716122</v>
       </c>
       <c r="D92">
-        <v>-0.1214485514304546</v>
+        <v>0.2264141357840104</v>
       </c>
       <c r="E92">
-        <v>-0.4568422591334843</v>
+        <v>0.03875436384227922</v>
       </c>
       <c r="F92">
-        <v>0.1432458935675247</v>
+        <v>-0.1357895155898363</v>
       </c>
       <c r="G92">
-        <v>0.2380517754178916</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>-0.04638373651018011</v>
+      </c>
+      <c r="H92">
+        <v>0.1458946414261044</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.1321414751879366</v>
+        <v>0.1922683106015952</v>
       </c>
       <c r="C93">
-        <v>0.0841387990594977</v>
+        <v>0.07495031114567194</v>
       </c>
       <c r="D93">
-        <v>-0.102952319115495</v>
+        <v>0.2967329843342379</v>
       </c>
       <c r="E93">
-        <v>-0.3880935199839189</v>
+        <v>0.07266949659746491</v>
       </c>
       <c r="F93">
-        <v>0.007530079434976275</v>
+        <v>-0.1917249458405071</v>
       </c>
       <c r="G93">
-        <v>-0.03528432608852806</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>-0.04679292018487282</v>
+      </c>
+      <c r="H93">
+        <v>-0.01461394735877165</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.2586637377219284</v>
+        <v>0.2395105399892911</v>
       </c>
       <c r="C94">
-        <v>0.1341901728121707</v>
+        <v>0.12990893864993</v>
       </c>
       <c r="D94">
-        <v>0.03366768410508698</v>
+        <v>-0.09377415791407605</v>
       </c>
       <c r="E94">
-        <v>0.0763702003191683</v>
+        <v>0.03080183976564612</v>
       </c>
       <c r="F94">
-        <v>-0.309125059171988</v>
+        <v>0.1690616664172855</v>
       </c>
       <c r="G94">
-        <v>0.008317330973149394</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>-0.2175684616936975</v>
+      </c>
+      <c r="H94">
+        <v>0.1455531217397348</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.07292481227529679</v>
+        <v>0.06176747739463352</v>
       </c>
       <c r="C95">
-        <v>0.0168066554515196</v>
+        <v>0.0418355730131531</v>
       </c>
       <c r="D95">
-        <v>0.06347847197878916</v>
+        <v>-0.07329852170497143</v>
       </c>
       <c r="E95">
-        <v>0.07553554994199142</v>
+        <v>0.06983473565685096</v>
       </c>
       <c r="F95">
-        <v>0.02582510051337002</v>
+        <v>0.0353519853366998</v>
       </c>
       <c r="G95">
-        <v>0.3813577386559036</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>0.05476878548817123</v>
+      </c>
+      <c r="H95">
+        <v>-0.01094693328812928</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2908,10 +3196,13 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2931,33 +3222,39 @@
       <c r="G97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:7">
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.1900297280721573</v>
+        <v>0.1705412407266022</v>
       </c>
       <c r="C98">
-        <v>0.04997384992521936</v>
+        <v>0.09779477647122808</v>
       </c>
       <c r="D98">
-        <v>0.0460269400896869</v>
+        <v>-0.02798576829763443</v>
       </c>
       <c r="E98">
-        <v>-0.04493927474429652</v>
+        <v>0.05569706735985371</v>
       </c>
       <c r="F98">
-        <v>0.05027381934201373</v>
+        <v>0.03548062180130343</v>
       </c>
       <c r="G98">
-        <v>-0.2752302919461404</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>0.1473136977897113</v>
+      </c>
+      <c r="H98">
+        <v>-0.3721570450499716</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2977,10 +3274,13 @@
       <c r="G99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:7">
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3000,97 +3300,112 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.003199262893826052</v>
+        <v>0.01395290843654675</v>
       </c>
       <c r="C101">
-        <v>0.03044486696910306</v>
+        <v>0.00251523070457779</v>
       </c>
       <c r="D101">
-        <v>0.01299537658243198</v>
+        <v>-0.002828968246106703</v>
       </c>
       <c r="E101">
-        <v>0.1198918980355211</v>
+        <v>-0.005767764189355503</v>
       </c>
       <c r="F101">
-        <v>0.1795511419967591</v>
+        <v>0.03649208522778886</v>
       </c>
       <c r="G101">
-        <v>-0.04432390146210992</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>0.09784659709012931</v>
+      </c>
+      <c r="H101">
+        <v>0.06947829985092725</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>0.09165135274545326</v>
+        <v>0.1017263343066848</v>
       </c>
       <c r="C102">
-        <v>0.03218387215576689</v>
+        <v>0.05060073204372766</v>
       </c>
       <c r="D102">
-        <v>0.01548123773314723</v>
+        <v>-0.05971979937897691</v>
       </c>
       <c r="E102">
-        <v>0.07646335694306139</v>
+        <v>-0.00120824029099686</v>
       </c>
       <c r="F102">
-        <v>-0.12872862923884</v>
+        <v>0.07669976121415298</v>
       </c>
       <c r="G102">
-        <v>0.09574016408437221</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>-0.09568702016741575</v>
+      </c>
+      <c r="H102">
+        <v>0.05819228761314799</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B103">
-        <v>0.02444148730315569</v>
+        <v>0.02145734514045399</v>
       </c>
       <c r="C103">
-        <v>0.01343503812973437</v>
+        <v>0.01192067621246574</v>
       </c>
       <c r="D103">
-        <v>0.01047650308164172</v>
+        <v>-0.01196876617357801</v>
       </c>
       <c r="E103">
-        <v>0.002915648978529574</v>
+        <v>-0.005800566310912253</v>
       </c>
       <c r="F103">
-        <v>-0.02358212992090386</v>
+        <v>0.01879009826892289</v>
       </c>
       <c r="G103">
-        <v>0.03866894683772921</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
+        <v>-0.009802178460844588</v>
+      </c>
+      <c r="H103">
+        <v>0.009850695780188004</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>0.4120811393765105</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>-0.8887166073854711</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>0.06462901181749926</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>-0.02586942959951797</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>0.1556124448801989</v>
       </c>
       <c r="G104">
-        <v>0</v>
+        <v>-0.03673838805713728</v>
+      </c>
+      <c r="H104">
+        <v>0.03284304250662726</v>
       </c>
     </row>
   </sheetData>
